--- a/Experiments/220907/output.xlsx
+++ b/Experiments/220907/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancardiff/Documents/Carothers/ARPA-E/Experiments/220907/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13593442-B00F-F542-B083-9DD41CC643A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FD7661-03B9-904D-860A-AED5C51F2188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1240" windowWidth="27640" windowHeight="16200" xr2:uid="{1A05B0CA-A046-544F-8CA0-DC632021F6FD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>PI</t>
   </si>
@@ -46,19 +46,31 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Rep1</t>
-  </si>
-  <si>
-    <t>Rep2</t>
-  </si>
-  <si>
-    <t>Rep3</t>
-  </si>
-  <si>
     <t>Temp1</t>
   </si>
   <si>
     <t>Temp2</t>
+  </si>
+  <si>
+    <t>Mal_Rep1</t>
+  </si>
+  <si>
+    <t>Mal_Rep2</t>
+  </si>
+  <si>
+    <t>Mal_Rep3</t>
+  </si>
+  <si>
+    <t>Pyr_Rep1</t>
+  </si>
+  <si>
+    <t>Pyr_Rep2</t>
+  </si>
+  <si>
+    <t>Pyr_Rep3</t>
+  </si>
+  <si>
+    <t>88363.63*</t>
   </si>
 </sst>
 </file>
@@ -94,9 +106,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,39 +422,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBC88DA-3DED-C940-A5FB-FA39E7E0824F}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D11"/>
+      <selection activeCell="H11" sqref="H11:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
@@ -461,12 +481,21 @@
       <c r="G2">
         <v>26128.6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <v>89094.93</v>
+      </c>
+      <c r="I2">
+        <v>480663.8</v>
+      </c>
+      <c r="J2">
+        <v>192608.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
@@ -484,12 +513,21 @@
       <c r="G3">
         <v>14516.94</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>65638.12</v>
+      </c>
+      <c r="I3">
+        <v>63366.48</v>
+      </c>
+      <c r="J3">
+        <v>63171.19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
@@ -507,12 +545,21 @@
       <c r="G4">
         <v>168392.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>510034</v>
+      </c>
+      <c r="I4">
+        <v>554459.9</v>
+      </c>
+      <c r="J4">
+        <v>548939.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
@@ -530,12 +577,21 @@
       <c r="G5">
         <v>79483.789999999994</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>520808.6</v>
+      </c>
+      <c r="I5">
+        <v>502768.6</v>
+      </c>
+      <c r="J5">
+        <v>434345.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
@@ -553,8 +609,17 @@
       <c r="G6">
         <v>273056.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>471187.20000000001</v>
+      </c>
+      <c r="I6">
+        <v>490429.8</v>
+      </c>
+      <c r="J6">
+        <v>512149.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -576,8 +641,17 @@
       <c r="G7">
         <v>39754.019999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>543779</v>
+      </c>
+      <c r="I7">
+        <v>560352.19999999995</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -599,8 +673,17 @@
       <c r="G8">
         <v>480349.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>496075</v>
+      </c>
+      <c r="I8">
+        <v>507086.1</v>
+      </c>
+      <c r="J8">
+        <v>499621.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -622,8 +705,17 @@
       <c r="G9">
         <v>114908.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>547519.19999999995</v>
+      </c>
+      <c r="I9">
+        <v>511226.3</v>
+      </c>
+      <c r="J9">
+        <v>519255.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -645,8 +737,17 @@
       <c r="G10">
         <v>1012820</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>449561.9</v>
+      </c>
+      <c r="I10">
+        <v>426142.2</v>
+      </c>
+      <c r="J10">
+        <v>473877</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -667,6 +768,15 @@
       </c>
       <c r="G11">
         <v>218950.39999999999</v>
+      </c>
+      <c r="H11">
+        <v>421341</v>
+      </c>
+      <c r="I11">
+        <v>536497.5</v>
+      </c>
+      <c r="J11">
+        <v>506794.5</v>
       </c>
     </row>
   </sheetData>
